--- a/biology/Botanique/Aechmea_tillandsioides/Aechmea_tillandsioides.xlsx
+++ b/biology/Botanique/Aechmea_tillandsioides/Aechmea_tillandsioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea tillandsioides est une espèce de plantes à fleurs de la famille des Bromeliaceae présente en Amérique centrale et en Amérique du Sud.
 </t>
@@ -511,19 +523,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea chiriquensis Baker[1]
-Aechmea kienastii E.Morren ex Mez[1] ;
-Aechmea vrieseoides Baker[1] ;
-Aechmea xiphophylla Baker[1] ;
-Billbergia gracilis Poepp. ex Beer[1] ;
-Billbergia tillandsioides Mart. ex Schult. &amp; Schult.f.[1] ;
-Ortgiesia tillandsioides (Mart. ex Schult. &amp; Schult.f.) Regel[1] ;
-Platyaechmea tillandsioides (Mart. ex Schult. &amp; Schult.f.) L.B.Sm. &amp; W.J.Kress[1] ;
-Platystachys gracilis Beer [non-valide][1] ;
-Portea tillandsioides (Mart. ex Schult. &amp; Schult.f.) G.Nicholson[1].
+Aechmea chiriquensis Baker
+Aechmea kienastii E.Morren ex Mez ;
+Aechmea vrieseoides Baker ;
+Aechmea xiphophylla Baker ;
+Billbergia gracilis Poepp. ex Beer ;
+Billbergia tillandsioides Mart. ex Schult. &amp; Schult.f. ;
+Ortgiesia tillandsioides (Mart. ex Schult. &amp; Schult.f.) Regel ;
+Platyaechmea tillandsioides (Mart. ex Schult. &amp; Schult.f.) L.B.Sm. &amp; W.J.Kress ;
+Platystachys gracilis Beer [non-valide] ;
+Portea tillandsioides (Mart. ex Schult. &amp; Schult.f.) G.Nicholson.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente du Mexique à la Bolivie, notamment au Belize, Costa Rica, Guatemala, Honduras, Panama, Guyana, Suriname, Venezuela, Colombie, Équateur, Pérou et Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente du Mexique à la Bolivie, notamment au Belize, Costa Rica, Guatemala, Honduras, Panama, Guyana, Suriname, Venezuela, Colombie, Équateur, Pérou et Brésil.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
